--- a/data_year/zb/就业人员和工资/按城乡分就业人员数.xlsx
+++ b/data_year/zb/就业人员和工资/按城乡分就业人员数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,337 +453,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48934</v>
+        <v>41418</v>
       </c>
       <c r="C2" t="n">
-        <v>23151</v>
+        <v>34687</v>
       </c>
       <c r="D2" t="n">
-        <v>72085</v>
+        <v>76105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48674</v>
+        <v>40193</v>
       </c>
       <c r="C3" t="n">
-        <v>24123</v>
+        <v>36003</v>
       </c>
       <c r="D3" t="n">
-        <v>72797</v>
+        <v>76196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48121</v>
+        <v>38967</v>
       </c>
       <c r="C4" t="n">
-        <v>25159</v>
+        <v>37287</v>
       </c>
       <c r="D4" t="n">
-        <v>73280</v>
+        <v>76254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47506</v>
+        <v>37774</v>
       </c>
       <c r="C5" t="n">
-        <v>26230</v>
+        <v>38527</v>
       </c>
       <c r="D5" t="n">
-        <v>73736</v>
+        <v>76301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46971</v>
+        <v>36646</v>
       </c>
       <c r="C6" t="n">
-        <v>27293</v>
+        <v>39703</v>
       </c>
       <c r="D6" t="n">
-        <v>74264</v>
+        <v>76349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46258</v>
+        <v>35404</v>
       </c>
       <c r="C7" t="n">
-        <v>28389</v>
+        <v>40916</v>
       </c>
       <c r="D7" t="n">
-        <v>74647</v>
+        <v>76320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45348</v>
+        <v>34194</v>
       </c>
       <c r="C8" t="n">
-        <v>29630</v>
+        <v>42051</v>
       </c>
       <c r="D8" t="n">
-        <v>74978</v>
+        <v>76245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44368</v>
+        <v>32850</v>
       </c>
       <c r="C9" t="n">
-        <v>30953</v>
+        <v>43208</v>
       </c>
       <c r="D9" t="n">
-        <v>75321</v>
+        <v>76058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43461</v>
+        <v>31490</v>
       </c>
       <c r="C10" t="n">
-        <v>32103</v>
+        <v>44292</v>
       </c>
       <c r="D10" t="n">
-        <v>75564</v>
+        <v>75782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42506</v>
+        <v>30198</v>
       </c>
       <c r="C11" t="n">
-        <v>33322</v>
+        <v>45249</v>
       </c>
       <c r="D11" t="n">
-        <v>75828</v>
+        <v>75447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41418</v>
+        <v>28793</v>
       </c>
       <c r="C12" t="n">
-        <v>34687</v>
+        <v>46271</v>
       </c>
       <c r="D12" t="n">
-        <v>76105</v>
+        <v>75064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40193</v>
+        <v>27879</v>
       </c>
       <c r="C13" t="n">
-        <v>36003</v>
+        <v>46773</v>
       </c>
       <c r="D13" t="n">
-        <v>76196</v>
+        <v>74652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38967</v>
+        <v>27420</v>
       </c>
       <c r="C14" t="n">
-        <v>37287</v>
+        <v>45931</v>
       </c>
       <c r="D14" t="n">
-        <v>76254</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>37774</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38527</v>
-      </c>
-      <c r="D15" t="n">
-        <v>76301</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>36646</v>
-      </c>
-      <c r="C16" t="n">
-        <v>39703</v>
-      </c>
-      <c r="D16" t="n">
-        <v>76349</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>35404</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40916</v>
-      </c>
-      <c r="D17" t="n">
-        <v>76320</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>34194</v>
-      </c>
-      <c r="C18" t="n">
-        <v>42051</v>
-      </c>
-      <c r="D18" t="n">
-        <v>76245</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>32850</v>
-      </c>
-      <c r="C19" t="n">
-        <v>43208</v>
-      </c>
-      <c r="D19" t="n">
-        <v>76058</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>31490</v>
-      </c>
-      <c r="C20" t="n">
-        <v>44292</v>
-      </c>
-      <c r="D20" t="n">
-        <v>75782</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>30198</v>
-      </c>
-      <c r="C21" t="n">
-        <v>45249</v>
-      </c>
-      <c r="D21" t="n">
-        <v>75447</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>28793</v>
-      </c>
-      <c r="C22" t="n">
-        <v>46271</v>
-      </c>
-      <c r="D22" t="n">
-        <v>75064</v>
+        <v>73351</v>
       </c>
     </row>
   </sheetData>
